--- a/Documents/TeamBacklog_TestCases.xlsx
+++ b/Documents/TeamBacklog_TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwady\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwady\Downloads\SimpleATMMachine-Project-Atmega32-Sprints\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA70320-6320-49B2-B50E-332C40AA5845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0556DD-E249-4432-AA7A-36507CBCE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="2676" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Task Name</t>
   </si>
@@ -73,60 +73,9 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Timer delay + timer interrupt </t>
-  </si>
-  <si>
-    <t>led 0 toggle after 1 sec using TIMER_delay then led 1 toggle every 2 sec using ovf interrupt</t>
-  </si>
-  <si>
-    <t>Same as expected</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing LM35 </t>
-  </si>
-  <si>
-    <t>when temp &gt; 25 led 1 on led 2 off, when temp &lt;= 25 led 1 off led 2 on.</t>
-  </si>
-  <si>
-    <t>Testing Keypad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">representing keypad's buttons value binary on 4 leds  </t>
-  </si>
-  <si>
-    <t>Testing Application; press set button, wait 2 seconds, press reset button, wait two seconds press adjust, wait 10 secs,  press increment button.</t>
-  </si>
-  <si>
-    <t>after pressing set button, buzzer will be on + bell shape at the beginning, after pressing reset button and waiting 10 seconds it will timeout from setting state and go to idle state of showing current temp + bell shape if it's higher than desired temp, after pressing increment button will print  this operation is not allowed.</t>
-  </si>
-  <si>
-    <t>Testing Application; During setting state press increment till it exceeds 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with every press a bell shape will be deleted from the second line representing number of degrees after reaching 18 decrement button will not have any effect  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with every press a bell shape will be drawn in the second line representing number of degrees after reaching 35 increment button will not have any effect  </t>
-  </si>
-  <si>
-    <t>Testing Application; During setting state press decrement till it exceeds 18</t>
-  </si>
-  <si>
-    <t>Testing Application; During Idle state increase and decrease exposed temperature to temperature sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD will print current temperature as the temperature measured from temperature sensor </t>
-  </si>
-  <si>
-    <t>It sometimes prints the same temperature and sometimes prints a higher or lower temperature by 1 degree</t>
-  </si>
-  <si>
-    <t>NEUTRAL</t>
-  </si>
-  <si>
     <t>UART Design</t>
   </si>
   <si>
@@ -161,13 +110,79 @@
   </si>
   <si>
     <t>ATM Application Development</t>
+  </si>
+  <si>
+    <t>Pressing all inputs before getting the trigger signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entering wrong pin three times </t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>Entering invalid PIN length</t>
+  </si>
+  <si>
+    <t>Entering correct pin</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Enter PAN &gt; 19 numeric characters</t>
+  </si>
+  <si>
+    <t>Enter PAN &lt; 16 numeric characters</t>
+  </si>
+  <si>
+    <t>Enter PAN with alphabetic characters</t>
+  </si>
+  <si>
+    <t>Enter Correct PAN</t>
+  </si>
+  <si>
+    <t>Enter PIN &gt; 4 numeric digits</t>
+  </si>
+  <si>
+    <t>Enter PIN &lt; 4 numeric digits</t>
+  </si>
+  <si>
+    <t>Enter PIN alphabetic digits</t>
+  </si>
+  <si>
+    <t>Enter different PINs in confirmation</t>
+  </si>
+  <si>
+    <t>Enter Correct PIN</t>
+  </si>
+  <si>
+    <t>Enter correct PIN confirmation</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Approved User Story Mention balance before the transaction</t>
+  </si>
+  <si>
+    <t>Fraud Card</t>
+  </si>
+  <si>
+    <t>Stolen Card</t>
+  </si>
+  <si>
+    <t>Max limit exceeded</t>
+  </si>
+  <si>
+    <t>Insufficient fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,20 +205,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,11 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -297,15 +300,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,13 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,39 +334,38 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -435,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test Case ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description / steps" dataDxfId="3"/>
@@ -747,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +774,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -787,16 +782,16 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>45051</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -804,16 +799,16 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>45051</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -821,16 +816,16 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>45051</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -838,16 +833,16 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>45051</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -855,16 +850,16 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>45051</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -872,16 +867,16 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>45051</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -889,16 +884,16 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>45051</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -906,110 +901,110 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>45051</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>45082</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>45051</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>45082</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>45051</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>45082</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>45051</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>45082</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>45051</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>45082</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <v>45051</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>45082</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="19"/>
+      <c r="E16" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1020,18 +1015,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1052,123 +1047,278 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/TeamBacklog_TestCases.xlsx
+++ b/Documents/TeamBacklog_TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwady\Downloads\SimpleATMMachine-Project-Atmega32-Sprints\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpleATMMachine-Project-Atmega32-Sprints\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0556DD-E249-4432-AA7A-36507CBCE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>Task Name</t>
   </si>
@@ -61,9 +60,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Description / steps</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -148,9 +144,6 @@
     <t>Enter PIN &lt; 4 numeric digits</t>
   </si>
   <si>
-    <t>Enter PIN alphabetic digits</t>
-  </si>
-  <si>
     <t>Enter different PINs in confirmation</t>
   </si>
   <si>
@@ -176,13 +169,136 @@
   </si>
   <si>
     <t>Insufficient fund</t>
+  </si>
+  <si>
+    <t>NOTHING CHANGED</t>
+  </si>
+  <si>
+    <t>It will shut down the ATM and will fire the alarm</t>
+  </si>
+  <si>
+    <t>It won't accept the enter button unless you enter 4 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will initiate a communication between card and atm to take card holder data and check on the PIN entered and if it's correct, it will ask the user to enter the amount to be withdrawed </t>
+  </si>
+  <si>
+    <t>Same as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we initiated the communication between card and atm just after inserting the card and before entering the pin, the rest of expected results of checking on PIN and Entering amount happens as expected </t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>It will inform the user that the PAN is invalid</t>
+  </si>
+  <si>
+    <t>In our application the terminal doesn't accept any inputs except numeric characters</t>
+  </si>
+  <si>
+    <t>It will ask the user to enter the PIN</t>
+  </si>
+  <si>
+    <t>It will print Wrong Pin and ask the user to enter pin again</t>
+  </si>
+  <si>
+    <t>We made the application to accept only 4 PINs</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>press enter button for two seconds while PIN is less or more than four digits</t>
+  </si>
+  <si>
+    <t>press enter for two seconds after entering a correct PIN</t>
+  </si>
+  <si>
+    <t>enter more than 19 digits on the terminal while it is asking for the PAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter less than 16 digits on the terminal while it is asking for the PAN </t>
+  </si>
+  <si>
+    <t>Enter alphabetic characters while the terminal is asking for the PAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a correct PAN on the terminal which its length is more or equal to 16 digits and less or equal to 19 digits </t>
+  </si>
+  <si>
+    <t>Enter PIN alphabetic characters</t>
+  </si>
+  <si>
+    <t>Enter on the terminal less than 4 digits while it's asking for the PIN</t>
+  </si>
+  <si>
+    <t>Enter on the terminal more than 4 digits while it's asking for the PIN</t>
+  </si>
+  <si>
+    <t>Enter on the terminal alphabetic charachters while it's asking for the PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter on the terminal a different PIN after it asks you to confirm PIN different from the PIN you entered at the beginning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter on the terminal a PIN after it asks you to confirm PIN same as to the PIN you entered at the beginning </t>
+  </si>
+  <si>
+    <t>Enter a correct PIN of 4 digits on the terminal when it asks you to enter PIN</t>
+  </si>
+  <si>
+    <t>It will ask the user to confirm the PIN through out the terminal</t>
+  </si>
+  <si>
+    <t>It will ask the user to enter 1 to enter user mode or 2 to enter the  programming mode</t>
+  </si>
+  <si>
+    <t>Enter Correct PIN to an Existing PAN the withdraw a correct balance which exists in that account and not more than the maximum amount of transaction</t>
+  </si>
+  <si>
+    <t>It will print Approved transaction and will show the user the remaining balance and then eject card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter A card which is doesn't exist in your data base </t>
+  </si>
+  <si>
+    <t>it will print fraud card and fires the alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter A card which is blocked in the data base </t>
+  </si>
+  <si>
+    <t>it will print stolen card and fires the alarm</t>
+  </si>
+  <si>
+    <t>Enter amount more than maximum amount of transaction -5000-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount more than the balance which the card holds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will print max limit exceeded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will print insufficient fund </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Pressing keypad's buttons       2- Pressing zero button     3- Pressing and holding zero button for two seconds -Enter Button- </t>
+  </si>
+  <si>
+    <t>Enter four digits through keypad and zero button, and then holding zero button for two seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +326,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +374,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,12 +428,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,18 +491,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -416,28 +552,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="10" headerRowCellStyle="60% - Accent1">
-  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="60% - Accent1">
+  <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Assignee"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Progress" dataDxfId="9" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Expected Time" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Actual Time" dataDxfId="7"/>
+    <tableColumn id="1" name="Task Name"/>
+    <tableColumn id="2" name="Assignee"/>
+    <tableColumn id="3" name="Progress" dataDxfId="10" dataCellStyle="Good"/>
+    <tableColumn id="4" name="Expected Time" dataDxfId="9"/>
+    <tableColumn id="5" name="Actual Time" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test Case ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description / steps" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Expected Results " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Actual Results" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="0" dataCellStyle="Good"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F23"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Test Case ID" dataDxfId="5"/>
+    <tableColumn id="6" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" name="Steps" dataDxfId="0"/>
+    <tableColumn id="3" name="Expected Results " dataDxfId="4"/>
+    <tableColumn id="4" name="Actual Results" dataDxfId="3"/>
+    <tableColumn id="5" name="Progress" dataDxfId="2" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -774,7 +911,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -791,7 +928,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -808,7 +945,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -825,7 +962,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -842,7 +979,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -859,7 +996,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -876,7 +1013,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -893,7 +1030,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -910,7 +1047,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>6</v>
@@ -927,7 +1064,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -951,7 +1088,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>6</v>
@@ -968,7 +1105,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -1014,311 +1151,448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
